--- a/braph2genesis/pipelines/connectivity-functional multiplex/example data CON-FUN_MP/xls/connectivity/GroupName1/covariates/GroupName1_covariates.xlsx
+++ b/braph2genesis/pipelines/connectivity-functional multiplex/example data CON-FUN_MP/xls/connectivity/GroupName1/covariates/GroupName1_covariates.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24020"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9112E981-E019-4BD2-8350-B35A0FB73CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovannivolpe/Documents/GitHub/Braph-2-Matlab/braph2genesis/pipelines/connectivity-functional multiplex/example data CON-FUN_MP/xls/connectivity/GroupName1/covariates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CAE9E8-6CEF-7E48-A18E-0034296AC6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12160" yWindow="800" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,15 +45,9 @@
     <t>ID1</t>
   </si>
   <si>
-    <t>male</t>
-  </si>
-  <si>
     <t>ID2</t>
   </si>
   <si>
-    <t>female</t>
-  </si>
-  <si>
     <t>ID3</t>
   </si>
   <si>
@@ -56,13 +55,19 @@
   </si>
   <si>
     <t>ID5</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,15 +432,15 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -446,7 +451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -454,51 +459,51 @@
         <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
